--- a/ログイン画面設計/ログイン画面.xlsx
+++ b/ログイン画面設計/ログイン画面.xlsx
@@ -143,7 +143,7 @@
     <t xml:space="preserve">入力した会員IDとパスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">2-1-4. </t>
+    <t xml:space="preserve">2-1-3. </t>
   </si>
   <si>
     <t xml:space="preserve">検索件数が1件の場合</t>
@@ -692,9 +692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -708,7 +708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="629640" y="549000"/>
-          <a:ext cx="2428200" cy="4715640"/>
+          <a:ext cx="2427840" cy="4715280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3703,8 +3703,8 @@
   </sheetPr>
   <dimension ref="A1:AY67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
